--- a/data/trans_dic/P1427-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1427-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03870070366178158</v>
+        <v>0.0372398913491862</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01768986997347847</v>
+        <v>0.01577199997948634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08301336298771719</v>
+        <v>0.084264646693965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04855525476145844</v>
+        <v>0.04914473737736628</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04241903857557226</v>
+        <v>0.04075698430142081</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1168229469984944</v>
+        <v>0.1174651226276803</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04783939011152561</v>
+        <v>0.04787505818218446</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03412786686837764</v>
+        <v>0.03326434799420779</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1087806740058998</v>
+        <v>0.107678237266629</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06934240818946365</v>
+        <v>0.06602291014365931</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03968220836933897</v>
+        <v>0.03896002686282458</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.125037378180651</v>
+        <v>0.1235522455217948</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07576322843179081</v>
+        <v>0.07597581614474394</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07515612805736373</v>
+        <v>0.07169183814467107</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1511587871120972</v>
+        <v>0.1511498738729025</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06774596364856464</v>
+        <v>0.06778690120839606</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05348897254995296</v>
+        <v>0.05385118453619372</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1350263578924786</v>
+        <v>0.1343867033972354</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004694323382165642</v>
+        <v>0.004754877427576147</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0033757099465956</v>
+        <v>0.003214117562987642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01369010359430036</v>
+        <v>0.01382883481513424</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002360209623199009</v>
+        <v>0.002474349414774394</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005778605727082073</v>
+        <v>0.005543319420584639</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01479607156365426</v>
+        <v>0.01468092965417784</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004156323965795904</v>
+        <v>0.004244581336414515</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005279416657636492</v>
+        <v>0.005075717142178185</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0152281751688799</v>
+        <v>0.01534226732896002</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01329039241924751</v>
+        <v>0.01382209564585015</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01012219775752506</v>
+        <v>0.009996876752558359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02394499689041297</v>
+        <v>0.02429906510688522</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01070513460601492</v>
+        <v>0.01121572257171682</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01494958590764084</v>
+        <v>0.01455031447257901</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02382761222380887</v>
+        <v>0.02328022491429869</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01045034305372786</v>
+        <v>0.0101861264815487</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01064905032575992</v>
+        <v>0.01081008077242407</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02210060644253973</v>
+        <v>0.02182842821926392</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001897045179067323</v>
+        <v>0.001913385121215815</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001805356306544455</v>
+        <v>0.001766799969847397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008735988778627499</v>
+        <v>0.00837984837769842</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003816258970737201</v>
+        <v>0.00383586656008761</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01336368707821801</v>
+        <v>0.01320177317294007</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002000541264745581</v>
+        <v>0.001977064396614823</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.004391205073876269</v>
+        <v>0.00380606966082688</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01303184889999621</v>
+        <v>0.01325319995002739</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01569091263214738</v>
+        <v>0.017701369703143</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01852967002246719</v>
+        <v>0.01694617516725298</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02395995247182518</v>
+        <v>0.02450818308750593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01341575339554595</v>
+        <v>0.01550184537236069</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02480154674822253</v>
+        <v>0.02819403222347375</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03500565774732579</v>
+        <v>0.03525650845649381</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01085216459483654</v>
+        <v>0.01147919358524696</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01783417541085393</v>
+        <v>0.0159919686327823</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02556513321580683</v>
+        <v>0.0259685076369407</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.02278112037337477</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.04441742635465494</v>
+        <v>0.04441742635465493</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.02324461889769709</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0150319027545944</v>
+        <v>0.0151279123820298</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007451653551592926</v>
+        <v>0.007500894619194825</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02672748801875724</v>
+        <v>0.02631878288539634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02141378143574511</v>
+        <v>0.02107508510527248</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01766526937370583</v>
+        <v>0.01834867833106506</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03955668463504187</v>
+        <v>0.03969656356106833</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01910434329979556</v>
+        <v>0.02003032384061188</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01378551540429981</v>
+        <v>0.01365428802173915</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03455583631293301</v>
+        <v>0.03441478416143964</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02546718392832973</v>
+        <v>0.02506864466158557</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01424533778215927</v>
+        <v>0.01404465227254898</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03691429012833372</v>
+        <v>0.03644029083960554</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03274703008350848</v>
+        <v>0.03218256596820071</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02844815827353101</v>
+        <v>0.0287028135423206</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05032655906784202</v>
+        <v>0.04996154056965004</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02683833791241796</v>
+        <v>0.02799567695917319</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02052047442516702</v>
+        <v>0.02000829129350958</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04216090737276151</v>
+        <v>0.04147105719184861</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37719</v>
+        <v>36296</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13344</v>
+        <v>11898</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>47866</v>
+        <v>48587</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>64957</v>
+        <v>65746</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>42193</v>
+        <v>40539</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>95895</v>
+        <v>96422</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>110626</v>
+        <v>110708</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>59690</v>
+        <v>58180</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>152016</v>
+        <v>150476</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>67584</v>
+        <v>64349</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29934</v>
+        <v>29389</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>72097</v>
+        <v>71240</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>101356</v>
+        <v>101640</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>74755</v>
+        <v>71309</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>124080</v>
+        <v>124072</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>156658</v>
+        <v>156753</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>93553</v>
+        <v>94186</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>188694</v>
+        <v>187800</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9219</v>
+        <v>9338</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7009</v>
+        <v>6674</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30506</v>
+        <v>30815</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4141</v>
+        <v>4341</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11490</v>
+        <v>11022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>32108</v>
+        <v>31858</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15455</v>
+        <v>15784</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>21459</v>
+        <v>20631</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>66980</v>
+        <v>67481</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26102</v>
+        <v>27146</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21018</v>
+        <v>20757</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>53358</v>
+        <v>54147</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18783</v>
+        <v>19679</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29724</v>
+        <v>28930</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>51707</v>
+        <v>50519</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>38860</v>
+        <v>37878</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43285</v>
+        <v>43940</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>97207</v>
+        <v>96010</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>987</v>
+        <v>966</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6209</v>
+        <v>5956</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2096</v>
+        <v>2106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9802</v>
+        <v>9683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1880</v>
+        <v>1858</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4813</v>
+        <v>4172</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>18820</v>
+        <v>19140</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7550</v>
+        <v>8518</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10134</v>
+        <v>9268</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17029</v>
+        <v>17418</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6153</v>
+        <v>7110</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13620</v>
+        <v>15482</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25675</v>
+        <v>25859</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10199</v>
+        <v>10788</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19547</v>
+        <v>17528</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>36921</v>
+        <v>37503</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>51406</v>
+        <v>51734</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25169</v>
+        <v>25335</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>93965</v>
+        <v>92528</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>76041</v>
+        <v>74838</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>62395</v>
+        <v>64809</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>147324</v>
+        <v>147845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>133173</v>
+        <v>139627</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>95254</v>
+        <v>94347</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>250186</v>
+        <v>249164</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>87092</v>
+        <v>85729</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>48115</v>
+        <v>47437</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>129778</v>
+        <v>128112</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>116285</v>
+        <v>114281</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>100482</v>
+        <v>101381</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>187435</v>
+        <v>186076</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>187085</v>
+        <v>195152</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>141791</v>
+        <v>138252</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>305247</v>
+        <v>300252</v>
       </c>
     </row>
     <row r="20">
